--- a/excel/mobile-subscribersoffer.xlsx
+++ b/excel/mobile-subscribersoffer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="55">
   <si>
     <t>Subject</t>
   </si>
@@ -48,160 +48,136 @@
     <t>mobile-subscribersoffer</t>
   </si>
   <si>
-    <t>CT001 - Request enviada com falha - Unauthorized - COD 401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1
-APIGEE
-POST
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
+    <t>CT001.1 - Request enviada com sucesso - Ok - COD 200</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1","APIGEE","POST","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>Z415515</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Hitss</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>CT001.2 - Request enviada com sucesso - Ok - COD 200</t>
+  </si>
+  <si>
+    <t>CT001.3 - Request enviada com sucesso - Ok - COD 200</t>
+  </si>
+  <si>
+    <t>CT002.4 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>CT002.5 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>CT002.6 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>CT003 - Request enviada com falha - Unauthorized - COD 401</t>
   </si>
   <si>
     <t xml:space="preserve">Authorization: ' ' </t>
   </si>
   <si>
-    <t>Z415515</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>MANUAL</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Hitss</t>
-  </si>
-  <si>
-    <t>Novo</t>
-  </si>
-  <si>
-    <t>CT002 - Request enviada com falha - Forbidden - COD 403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1
-APIGEE
-POST
-https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers</t>
+    <t>CT004 - Request enviada com falha - Forbidden - COD 403</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1","APIGEE","POST","https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers"]</t>
   </si>
   <si>
     <t>https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers</t>
   </si>
   <si>
-    <t>CT003 - Request enviada com falha - Not Found - COD 404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1
-APIGEE
-POST
-https://api-test.claro.com.br/mobile/v1/subscribers/offers/404</t>
+    <t>CT005 - Request enviada com falha - Not Found - COD 404</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1","APIGEE","POST","https://api-test.claro.com.br/mobile/v1/subscribers/offers/404"]</t>
   </si>
   <si>
     <t>https://api-test.claro.com.br/mobile/v1/subscribers/offers/404</t>
   </si>
   <si>
-    <t>CT004 - Request enviada com falha - Method Not Allowed - COD 405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1
-APIGEE
-PATCH
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
+    <t>CT006 - Request enviada com falha - Method Not Allowed - COD 405</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1","APIGEE","PATCH","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
     <t>PATCH</t>
   </si>
   <si>
-    <t>CT005 - Request enviada com falha - Not Acceptable - COD 406</t>
+    <t>CT007 - Request enviada com falha - Not Acceptable - COD 406</t>
   </si>
   <si>
     <t>Accept: text/plain</t>
   </si>
   <si>
-    <t>CT006 - Request enviada com falha - Unsupported Media Type - COD 415</t>
+    <t>CT008 - Request enviada com falha - Unsupported Media Type - COD 415</t>
   </si>
   <si>
     <t>Content-Type: text/plain</t>
   </si>
   <si>
-    <t>CT007 - Request enviada com falha - Too Many Requests - COD 429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1
-APIGEE
-POST
-https://api-test.claro.com.br/mobile/v1/subscribers/offers
-https://api-test.claro.com.br/mobile/v1/subscribers/offers
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
+    <t>CT010 - Request enviada com falha - Too Many Requests - COD 429</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1","APIGEE","POST","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
     <t>["https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
-    <t xml:space="preserve">Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1
-APIGEE
-DELETE
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1
-APIGEE
-DELETE
-https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1
-APIGEE
-DELETE
-https://api-test.claro.com.br/mobile/v1/subscribers/offers/404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1
-APIGEE
-PATCH
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1
-APIGEE
-DELETE
-https://api-test.claro.com.br/mobile/v1/subscribers/offers
-https://api-test.claro.com.br/mobile/v1/subscribers/offers
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel
-APIGEE
-GET
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel
-APIGEE
-GET
-https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel
-APIGEE
-GET
-https://api-test.claro.com.br/mobile/v1/subscribers/offers/404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel
-APIGEE
-PATCH
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel
-APIGEE
-GET
-https://api-test.claro.com.br/mobile/v1/subscribers/offers
-https://api-test.claro.com.br/mobile/v1/subscribers/offers
-https://api-test.claro.com.br/mobile/v1/subscribers/offers</t>
+    <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/subscribers/offers/404"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","PATCH","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>CT001.4 - Request enviada com sucesso - Ok - COD 200</t>
+  </si>
+  <si>
+    <t>CT001.5 - Request enviada com sucesso - Ok - COD 200</t>
+  </si>
+  <si>
+    <t>CT001.6 - Request enviada com sucesso - Ok - COD 200</t>
+  </si>
+  <si>
+    <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","GET","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","GET","https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","GET","https://api-test.claro.com.br/mobile/v1/subscribers/offers/404"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","PATCH","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","GET","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
 </sst>
 </file>
@@ -578,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -623,26 +599,23 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -650,31 +623,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -682,31 +652,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,31 +681,28 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,31 +710,28 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,31 +739,28 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -810,31 +768,301 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -888,28 +1116,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -917,31 +1142,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,31 +1171,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,31 +1200,28 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,31 +1229,28 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,31 +1258,28 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1077,31 +1287,301 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1154,29 +1634,23 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,31 +1658,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,31 +1684,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,31 +1710,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1280,31 +1736,25 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1312,63 +1762,456 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mobile-subscribersoffer.xlsx
+++ b/excel/mobile-subscribersoffer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="132">
   <si>
     <t>Subject</t>
   </si>
@@ -54,6 +54,9 @@
     <t>["Operação responsável por Adição de ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - AdicionarOfertasAssinantesv1","APIGEE","POST","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
+    <t>{"subscriber":{"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","telephoneNumber":1191000000,"id":"SIGILO"}}</t>
+  </si>
+  <si>
     <t>Z415515</t>
   </si>
   <si>
@@ -75,18 +78,105 @@
     <t>CT001.2 - Request enviada com sucesso - Ok - COD 200</t>
   </si>
   <si>
+    <t>{"subscriberType":{"id":123456,"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","offersType":{"id":123456}}}</t>
+  </si>
+  <si>
     <t>CT001.3 - Request enviada com sucesso - Ok - COD 200</t>
   </si>
   <si>
+    <t>{"commonCategory":{"telephoneNumber":"1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO","commonCategory":"BLOQUEIO_TOTAL_DADOS"}}</t>
+  </si>
+  <si>
+    <t>CT002.1 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"serviceType":"","subscriptionType":"CLARO_CARTAO","telephoneNumber":1191000000,"id":"SIGILO"}</t>
+  </si>
+  <si>
+    <t>CT002.2 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"serviceType":"MOVEL","subscriptionType":"","telephoneNumber":1191000000,"id":"SIGILO"}</t>
+  </si>
+  <si>
+    <t>CT002.3 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","telephoneNumber":"","id":"SIGILO"}</t>
+  </si>
+  <si>
     <t>CT002.4 - Request enviada com falha - Bad Request - COD 400</t>
   </si>
   <si>
+    <t>{"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","telephoneNumber":1191000000,"id":""}</t>
+  </si>
+  <si>
     <t>CT002.5 - Request enviada com falha - Bad Request - COD 400</t>
   </si>
   <si>
+    <t>{"serviceType":"","subscriptionType":"","telephoneNumber":"","id":""}</t>
+  </si>
+  <si>
     <t>CT002.6 - Request enviada com falha - Bad Request - COD 400</t>
   </si>
   <si>
+    <t>{"id":"","serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","offersType":{"id":123456}}</t>
+  </si>
+  <si>
+    <t>CT002.7 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"","subscriptionType":"CLARO_CARTAO","offersType":{"id":123456}}</t>
+  </si>
+  <si>
+    <t>CT002.8 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"MOVEL","subscriptionType":"","offersType":{"id":123456}}</t>
+  </si>
+  <si>
+    <t>CT002.9 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"id":""}</t>
+  </si>
+  <si>
+    <t>CT002.10 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"id":"","serviceType":"","subscriptionType":"","offersType":""}</t>
+  </si>
+  <si>
+    <t>CT002.11 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"","partyType":"PF","subscriptionType":"CLARO_CARTAO","commonCategory":"BLOQUEIO_TOTAL_DADOS"}</t>
+  </si>
+  <si>
+    <t>CT002.12 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000","partyType":"","subscriptionType":"CLARO_CARTAO","commonCategory":"BLOQUEIO_TOTAL_DADOS"}</t>
+  </si>
+  <si>
+    <t>CT002.13 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000","partyType":"PF","subscriptionType":"","commonCategory":"BLOQUEIO_TOTAL_DADOS"}</t>
+  </si>
+  <si>
+    <t>CT002.14 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO","commonCategory":""}</t>
+  </si>
+  <si>
+    <t>CT002.15 - Request enviada com falha - Bad Request - COD 400</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"","partyType":"","subscriptionType":"","commonCategory":""}</t>
+  </si>
+  <si>
     <t>CT003 - Request enviada com falha - Unauthorized - COD 401</t>
   </si>
   <si>
@@ -132,6 +222,78 @@
     <t>Content-Type: text/plain</t>
   </si>
   <si>
+    <t>CT009.1 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"serviceType":"MOVEL*%5r","subscriptionType":"CLARO_CARTAO","telephoneNumber":1191000000,"id":"SIGILO"}</t>
+  </si>
+  <si>
+    <t>CT009.2 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO*%5r","telephoneNumber":1191000000,"id":"SIGILO"}</t>
+  </si>
+  <si>
+    <t>CT009.3 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","telephoneNumber":"1191000000*%5r","id":"SIGILO"}</t>
+  </si>
+  <si>
+    <t>CT009.4 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","telephoneNumber":1191000000,"id":"SIGILO*%5r"}</t>
+  </si>
+  <si>
+    <t>CT009.5 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"id":"123456*%5r","serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO","offersType":{"id":123456}}</t>
+  </si>
+  <si>
+    <t>CT009.6 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"MOVEL*%5r","subscriptionType":"CLARO_CARTAO","offersType":{"id":123456}}</t>
+  </si>
+  <si>
+    <t>CT009.7 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO*%5r","offersType":{"id":123456}}</t>
+  </si>
+  <si>
+    <t>CT009.8 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"id":"[object Object]*%5r"}</t>
+  </si>
+  <si>
+    <t>CT009.9 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000*%5r","partyType":"PF","subscriptionType":"CLARO_CARTAO","commonCategory":"BLOQUEIO_TOTAL_DADOS"}</t>
+  </si>
+  <si>
+    <t>CT009.10 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000","partyType":"PF*%5r","subscriptionType":"CLARO_CARTAO","commonCategory":"BLOQUEIO_TOTAL_DADOS"}</t>
+  </si>
+  <si>
+    <t>CT009.11 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO*%5r","commonCategory":"BLOQUEIO_TOTAL_DADOS"}</t>
+  </si>
+  <si>
+    <t>CT009.12 - Request enviada com falha - Unprocessable Entity - COD 422</t>
+  </si>
+  <si>
+    <t>{"telephoneNumber":"1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO","commonCategory":"BLOQUEIO_TOTAL_DADOS*%5r"}</t>
+  </si>
+  <si>
     <t>CT010 - Request enviada com falha - Too Many Requests - COD 429</t>
   </si>
   <si>
@@ -144,6 +306,21 @@
     <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
+    <t>{"subscriberTypeDeleteResquest":{"id":123456,"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO"}}</t>
+  </si>
+  <si>
+    <t>{"id":"","serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO"}</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"","subscriptionType":"CLARO_CARTAO"}</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"MOVEL","subscriptionType":""}</t>
+  </si>
+  <si>
+    <t>{"id":"","serviceType":"","subscriptionType":""}</t>
+  </si>
+  <si>
     <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/(.*)/subscribers/offers"]</t>
   </si>
   <si>
@@ -153,18 +330,60 @@
     <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","PATCH","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
+    <t>{"id":"123456*%5r","serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO"}</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"MOVEL*%5r","subscriptionType":"CLARO_CARTAO"}</t>
+  </si>
+  <si>
+    <t>{"id":123456,"serviceType":"MOVEL","subscriptionType":"CLARO_CARTAO*%5r"}</t>
+  </si>
+  <si>
     <t>["Operação responsável por Remover as ofertas para um assinante pós/control ou pré-pago. Backend: SOA Móvel - RemoverOfertasAssinantesv1","APIGEE","DELETE","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
+    <t>{"partyType":"PF","subscriptionType":"CLARO_CARTAO","X-QueryString":"telephoneNumber=1191000000","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"partyType":"PJ","subscriptionType":"CLARO_CONTA","X-QueryString":"telephoneNumber=1191000000","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"partyType":"PF","subscriptionType":"CLARO_CONTROLE","X-QueryString":"telephoneNumber=1191000000","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
     <t>CT001.4 - Request enviada com sucesso - Ok - COD 200</t>
   </si>
   <si>
+    <t>{"partyType":"PJ","subscriptionType":"CLARO_CARTAO","X-QueryString":"telephoneNumber=1191000000","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
     <t>CT001.5 - Request enviada com sucesso - Ok - COD 200</t>
   </si>
   <si>
+    <t>{"partyType":"PF","subscriptionType":"CLARO_CONTA","X-QueryString":"telephoneNumber=1191000000","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
     <t>CT001.6 - Request enviada com sucesso - Ok - COD 200</t>
   </si>
   <si>
+    <t>{"partyType":"PJ","subscriptionType":"CLARO_CONTROLE","X-QueryString":"telephoneNumber=1191000000","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"","partyType":"PF","subscriptionType":"CLARO_CARTAO","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000","partyType":"","subscriptionType":"CLARO_CARTAO","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000","partyType":"PF","subscriptionType":"","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO","operationType":""}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"","partyType":"","subscriptionType":"","operationType":""}</t>
+  </si>
+  <si>
     <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","GET","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
   </si>
   <si>
@@ -175,6 +394,18 @@
   </si>
   <si>
     <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","PATCH","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000*%5r","partyType":"PF","subscriptionType":"CLARO_CARTAO","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000","partyType":"PF*%5r","subscriptionType":"CLARO_CARTAO","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO*%5r","operationType":"CONSULTA_UNIFICADA"}</t>
+  </si>
+  <si>
+    <t>{"X-QueryString":"telephoneNumber=1191000000","partyType":"PF","subscriptionType":"CLARO_CARTAO","operationType":"CONSULTA_UNIFICADA*%5r"}</t>
   </si>
   <si>
     <t>["Operação responsável por listar as ofertas de um assinante pós, controle ou pré-pago. Backend: SOA Móvel","APIGEE","GET","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers","https://api-test.claro.com.br/mobile/v1/subscribers/offers"]</t>
@@ -554,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -599,23 +830,26 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -623,28 +857,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,28 +889,31 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,28 +921,31 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -710,28 +953,31 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,28 +985,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -768,31 +1017,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,31 +1049,31 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -832,31 +1081,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -864,31 +1113,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,31 +1145,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,109 +1177,127 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1038,31 +1305,703 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +2012,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1116,25 +2055,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,28 +2084,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1171,28 +2116,31 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1200,28 +2148,31 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1229,28 +2180,31 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1258,28 +2212,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1287,31 +2244,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1319,31 +2276,31 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1351,31 +2308,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1383,31 +2340,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1415,31 +2372,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1447,109 +2404,127 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1557,31 +2532,639 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +3175,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J50"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,23 +3217,26 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1658,25 +3244,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1684,25 +3273,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1710,25 +3302,28 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1736,25 +3331,28 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,456 +3360,1188 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
